--- a/Rebalancing.xlsx
+++ b/Rebalancing.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\U093799\Documents\GitHub\IndexRebalancing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D31A76CD-6206-412B-A87D-A7CA3A7D5909}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEC1E901-9F40-4174-949F-F1FE2E2ED7E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23025" yWindow="1500" windowWidth="15375" windowHeight="8325" xr2:uid="{2922C127-DD1F-4FC3-8EFF-9AC37F207091}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{2922C127-DD1F-4FC3-8EFF-9AC37F207091}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1 (2)" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="73">
   <si>
     <t>Data effettiva</t>
   </si>
@@ -610,7 +611,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1147,6 +1148,608 @@
         <v>59</v>
       </c>
       <c r="G22" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>44004</v>
+      </c>
+      <c r="B23" s="2">
+        <f t="shared" si="0"/>
+        <v>43980</v>
+      </c>
+      <c r="C23" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" t="s">
+        <v>68</v>
+      </c>
+      <c r="E23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>44004</v>
+      </c>
+      <c r="B24" s="2">
+        <f t="shared" si="0"/>
+        <v>43980</v>
+      </c>
+      <c r="C24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" t="s">
+        <v>70</v>
+      </c>
+      <c r="E24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA7E8C76-2BC0-426D-AA93-32744A25B8F9}">
+  <dimension ref="A1:G25"/>
+  <sheetViews>
+    <sheetView topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.28515625" customWidth="1"/>
+    <col min="6" max="7" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>40259</v>
+      </c>
+      <c r="B2" s="2">
+        <f t="shared" ref="B2:B24" si="0">A2-WEEKDAY(A2,16)-21</f>
+        <v>40235</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>40532</v>
+      </c>
+      <c r="B3" s="2">
+        <f t="shared" si="0"/>
+        <v>40508</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>40532</v>
+      </c>
+      <c r="B4" s="2">
+        <f t="shared" si="0"/>
+        <v>40508</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>40532</v>
+      </c>
+      <c r="B5" s="2">
+        <f t="shared" si="0"/>
+        <v>40508</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>40805</v>
+      </c>
+      <c r="B6" s="2">
+        <f t="shared" si="0"/>
+        <v>40781</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>40896</v>
+      </c>
+      <c r="B7" s="2">
+        <f t="shared" si="0"/>
+        <v>40872</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>41631</v>
+      </c>
+      <c r="B8" s="2">
+        <f t="shared" si="0"/>
+        <v>41607</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>41722</v>
+      </c>
+      <c r="B9" s="2">
+        <f t="shared" si="0"/>
+        <v>41698</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>42268</v>
+      </c>
+      <c r="B10" s="2">
+        <f t="shared" si="0"/>
+        <v>42244</v>
+      </c>
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>42359</v>
+      </c>
+      <c r="B11" s="2">
+        <f t="shared" si="0"/>
+        <v>42335</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>42450</v>
+      </c>
+      <c r="B12" s="2">
+        <f t="shared" si="0"/>
+        <v>42426</v>
+      </c>
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>42541</v>
+      </c>
+      <c r="B13" s="2">
+        <f t="shared" si="0"/>
+        <v>42517</v>
+      </c>
+      <c r="C13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>42723</v>
+      </c>
+      <c r="B14" s="2">
+        <f t="shared" si="0"/>
+        <v>42699</v>
+      </c>
+      <c r="C14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>42814</v>
+      </c>
+      <c r="B15" s="2">
+        <f t="shared" si="0"/>
+        <v>42790</v>
+      </c>
+      <c r="C15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>43087</v>
+      </c>
+      <c r="B16" s="2">
+        <f t="shared" si="0"/>
+        <v>43063</v>
+      </c>
+      <c r="C16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>43461</v>
+      </c>
+      <c r="B17" s="2">
+        <f t="shared" si="0"/>
+        <v>43434</v>
+      </c>
+      <c r="C17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>43461</v>
+      </c>
+      <c r="B18" s="2">
+        <f t="shared" si="0"/>
+        <v>43434</v>
+      </c>
+      <c r="C18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>43542</v>
+      </c>
+      <c r="B19" s="2">
+        <f t="shared" si="0"/>
+        <v>43518</v>
+      </c>
+      <c r="C19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>43640</v>
+      </c>
+      <c r="B20" s="2">
+        <f t="shared" si="0"/>
+        <v>43616</v>
+      </c>
+      <c r="C20" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>43822</v>
+      </c>
+      <c r="B21" s="2">
+        <f t="shared" si="0"/>
+        <v>43798</v>
+      </c>
+      <c r="C21" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>43913</v>
+      </c>
+      <c r="B22" s="2">
+        <f t="shared" si="0"/>
+        <v>43889</v>
+      </c>
+      <c r="C22" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" t="s">
+        <v>66</v>
+      </c>
+      <c r="E22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G22" s="1" t="s">
         <v>52</v>
       </c>
     </row>
